--- a/ABC Banking_TestCase_NewAccount.xlsx
+++ b/ABC Banking_TestCase_NewAccount.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SQA\Class\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SQA\Class\Project\ABC_Banking_ManualTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="91">
   <si>
     <t>Project Name:</t>
   </si>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t>User should able to see the next page</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
   <si>
     <t>TS_N_AC_002</t>
@@ -1353,6 +1350,24 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1370,24 +1385,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1672,7 +1669,7 @@
   <dimension ref="A1:K987"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1690,102 +1687,102 @@
     <col min="11" max="11" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="16"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="16"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="22"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="17"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="17"/>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -1819,31 +1816,31 @@
       <c r="J7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>26</v>
@@ -1852,31 +1849,29 @@
         <v>27</v>
       </c>
       <c r="J8" s="8"/>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
-        <v>29</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="E9" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>26</v>
@@ -1885,313 +1880,291 @@
         <v>27</v>
       </c>
       <c r="J9" s="8"/>
-      <c r="K9" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
-        <v>33</v>
+      <c r="A10" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="E10" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
-        <v>38</v>
+      <c r="A11" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="E11" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
-        <v>43</v>
+      <c r="A12" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>45</v>
-      </c>
       <c r="E12" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
-        <v>48</v>
+      <c r="A13" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>50</v>
-      </c>
       <c r="E13" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>53</v>
+      <c r="A14" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>55</v>
-      </c>
       <c r="E14" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
-        <v>58</v>
+      <c r="A15" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>60</v>
-      </c>
       <c r="E15" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:11" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
-        <v>63</v>
+      <c r="A16" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>65</v>
-      </c>
       <c r="E16" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="7" t="s">
-        <v>28</v>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="B17" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="D17" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="7" t="s">
-        <v>28</v>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>73</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="B18" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="9" t="s">
+      <c r="E18" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="7" t="s">
-        <v>28</v>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="B19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>80</v>
-      </c>
       <c r="E19" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
